--- a/data/unchecked/manual_collect/china/heilongjiang/heilongjiangCaseStatistics_20200608.xlsx
+++ b/data/unchecked/manual_collect/china/heilongjiang/heilongjiangCaseStatistics_20200608.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18127\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D24EC2-1707-42D7-8B35-7C93EE1E7012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CB1E5C-358F-42BB-ABB0-4341E02D6619}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10820,8 +10820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11033,10 +11033,10 @@
         <v>2</v>
       </c>
       <c r="P2" s="17">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="R2" s="17">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="S2" s="17">
         <v>13</v>
@@ -11831,6 +11831,12 @@
       </c>
       <c r="G16" s="12" t="s">
         <v>3296</v>
+      </c>
+      <c r="P16" s="17">
+        <v>2</v>
+      </c>
+      <c r="R16" s="17">
+        <v>2</v>
       </c>
       <c r="Y16" s="17" t="s">
         <v>3290</v>
